--- a/publipostage/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
+++ b/publipostage/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:K225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +656,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +699,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -711,6 +741,11 @@
       </c>
       <c r="J7" t="b">
         <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -746,6 +781,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -784,6 +824,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -822,6 +867,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -859,6 +909,11 @@
       </c>
       <c r="J11" t="b">
         <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -894,6 +949,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -932,6 +992,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -970,6 +1035,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1008,6 +1078,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1050,6 +1125,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1088,6 +1168,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1126,6 +1211,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1164,6 +1254,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1202,6 +1297,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1240,6 +1340,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1282,6 +1387,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1320,6 +1430,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1358,6 +1473,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1400,6 +1520,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1442,6 +1567,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1480,6 +1610,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1522,6 +1657,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1560,6 +1700,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1598,6 +1743,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1636,6 +1786,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1678,6 +1833,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1716,6 +1876,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1754,6 +1919,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1792,6 +1962,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1830,6 +2005,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1868,6 +2048,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1906,6 +2091,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1948,6 +2138,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1986,6 +2181,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2028,6 +2228,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2070,6 +2275,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2108,6 +2318,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2146,6 +2361,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2184,6 +2404,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2226,6 +2451,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2267,6 +2497,11 @@
       </c>
       <c r="J47" t="b">
         <v>1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2302,6 +2537,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2340,6 +2580,11 @@
       <c r="J49" t="b">
         <v>1</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2382,6 +2627,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2420,6 +2670,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2458,6 +2713,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2496,6 +2756,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2537,6 +2802,11 @@
       </c>
       <c r="J54" t="b">
         <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2572,6 +2842,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2606,6 +2881,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2644,6 +2924,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2686,6 +2971,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2728,6 +3018,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2770,6 +3065,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2812,6 +3112,11 @@
       <c r="J61" t="b">
         <v>1</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2854,6 +3159,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2892,6 +3202,11 @@
       <c r="J63" t="b">
         <v>1</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2934,6 +3249,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2976,6 +3296,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3013,6 +3338,11 @@
       </c>
       <c r="J66" t="b">
         <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3052,6 +3382,11 @@
       <c r="J67" t="b">
         <v>1</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3094,6 +3429,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3132,6 +3472,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3174,6 +3519,11 @@
       <c r="J70" t="b">
         <v>1</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3217,6 +3567,7 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3259,6 +3610,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3301,6 +3657,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3343,6 +3704,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3381,6 +3747,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3423,6 +3794,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3464,6 +3840,11 @@
       </c>
       <c r="J77" t="b">
         <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3503,6 +3884,11 @@
       <c r="J78" t="b">
         <v>1</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3545,6 +3931,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3587,6 +3978,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3625,6 +4021,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3667,6 +4068,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3709,6 +4115,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3747,6 +4158,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3785,6 +4201,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3827,6 +4248,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3865,6 +4291,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3903,6 +4334,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3945,6 +4381,11 @@
       <c r="J89" t="b">
         <v>1</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3987,6 +4428,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4029,6 +4475,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4071,6 +4522,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4113,6 +4569,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4151,6 +4612,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4193,6 +4659,11 @@
       <c r="J95" t="b">
         <v>1</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4235,6 +4706,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4272,6 +4748,11 @@
       </c>
       <c r="J97" t="b">
         <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4311,6 +4792,11 @@
       <c r="J98" t="b">
         <v>1</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4349,6 +4835,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4391,6 +4882,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4433,6 +4929,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4475,6 +4976,11 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4517,6 +5023,11 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4559,6 +5070,11 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4597,6 +5113,11 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4639,6 +5160,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4681,6 +5207,11 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4723,6 +5254,11 @@
       <c r="J108" t="b">
         <v>0</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4765,6 +5301,11 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4807,6 +5348,11 @@
       <c r="J110" t="b">
         <v>0</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4849,6 +5395,11 @@
       <c r="J111" t="b">
         <v>1</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4892,6 +5443,7 @@
       <c r="J112" t="b">
         <v>1</v>
       </c>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4934,6 +5486,11 @@
       <c r="J113" t="b">
         <v>0</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4976,6 +5533,11 @@
       <c r="J114" t="b">
         <v>1</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5018,6 +5580,11 @@
       <c r="J115" t="b">
         <v>0</v>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5060,6 +5627,11 @@
       <c r="J116" t="b">
         <v>1</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5102,6 +5674,11 @@
       <c r="J117" t="b">
         <v>0</v>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5144,6 +5721,11 @@
       <c r="J118" t="b">
         <v>0</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5186,6 +5768,11 @@
       <c r="J119" t="b">
         <v>0</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5228,6 +5815,11 @@
       <c r="J120" t="b">
         <v>0</v>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5266,6 +5858,11 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5308,6 +5905,11 @@
       <c r="J122" t="b">
         <v>0</v>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5350,6 +5952,11 @@
       <c r="J123" t="b">
         <v>1</v>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5392,6 +5999,11 @@
       <c r="J124" t="b">
         <v>1</v>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5434,6 +6046,11 @@
       <c r="J125" t="b">
         <v>0</v>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5476,6 +6093,11 @@
       <c r="J126" t="b">
         <v>0</v>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5518,6 +6140,11 @@
       <c r="J127" t="b">
         <v>0</v>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5556,6 +6183,11 @@
       <c r="J128" t="b">
         <v>0</v>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5598,6 +6230,11 @@
       <c r="J129" t="b">
         <v>0</v>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5640,6 +6277,11 @@
       <c r="J130" t="b">
         <v>0</v>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5682,6 +6324,11 @@
       <c r="J131" t="b">
         <v>0</v>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5724,6 +6371,11 @@
       <c r="J132" t="b">
         <v>0</v>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5762,6 +6414,11 @@
       <c r="J133" t="b">
         <v>1</v>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5804,6 +6461,11 @@
       <c r="J134" t="b">
         <v>0</v>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5846,6 +6508,11 @@
       <c r="J135" t="b">
         <v>1</v>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5888,6 +6555,11 @@
       <c r="J136" t="b">
         <v>0</v>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5930,6 +6602,11 @@
       <c r="J137" t="b">
         <v>0</v>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5972,6 +6649,11 @@
       <c r="J138" t="b">
         <v>0</v>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6014,6 +6696,11 @@
       <c r="J139" t="b">
         <v>0</v>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6056,6 +6743,11 @@
       <c r="J140" t="b">
         <v>0</v>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6098,6 +6790,11 @@
       <c r="J141" t="b">
         <v>0</v>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6136,6 +6833,11 @@
       <c r="J142" t="b">
         <v>0</v>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6178,6 +6880,11 @@
       <c r="J143" t="b">
         <v>0</v>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6220,6 +6927,11 @@
       <c r="J144" t="b">
         <v>0</v>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6262,6 +6974,11 @@
       <c r="J145" t="b">
         <v>0</v>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6304,6 +7021,11 @@
       <c r="J146" t="b">
         <v>1</v>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6346,6 +7068,11 @@
       <c r="J147" t="b">
         <v>0</v>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6388,6 +7115,11 @@
       <c r="J148" t="b">
         <v>1</v>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6430,6 +7162,11 @@
       <c r="J149" t="b">
         <v>0</v>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6472,6 +7209,11 @@
       <c r="J150" t="b">
         <v>0</v>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6514,6 +7256,11 @@
       <c r="J151" t="b">
         <v>0</v>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6556,6 +7303,11 @@
       <c r="J152" t="b">
         <v>0</v>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6598,6 +7350,11 @@
       <c r="J153" t="b">
         <v>0</v>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6640,6 +7397,11 @@
       <c r="J154" t="b">
         <v>0</v>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6682,6 +7444,11 @@
       <c r="J155" t="b">
         <v>0</v>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6724,6 +7491,11 @@
       <c r="J156" t="b">
         <v>0</v>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6766,6 +7538,11 @@
       <c r="J157" t="b">
         <v>0</v>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6804,6 +7581,11 @@
       <c r="J158" t="b">
         <v>0</v>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6846,6 +7628,11 @@
       <c r="J159" t="b">
         <v>0</v>
       </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6884,6 +7671,11 @@
       <c r="J160" t="b">
         <v>0</v>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6926,6 +7718,11 @@
       <c r="J161" t="b">
         <v>0</v>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6968,6 +7765,7 @@
       <c r="J162" t="b">
         <v>0</v>
       </c>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7010,6 +7808,11 @@
       <c r="J163" t="b">
         <v>0</v>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7048,6 +7851,11 @@
       <c r="J164" t="b">
         <v>0</v>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7086,6 +7894,11 @@
       <c r="J165" t="b">
         <v>0</v>
       </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7128,6 +7941,11 @@
       <c r="J166" t="b">
         <v>0</v>
       </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7170,6 +7988,11 @@
       <c r="J167" t="b">
         <v>0</v>
       </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7208,6 +8031,11 @@
       <c r="J168" t="b">
         <v>0</v>
       </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7250,6 +8078,11 @@
       <c r="J169" t="b">
         <v>0</v>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7292,6 +8125,11 @@
       <c r="J170" t="b">
         <v>1</v>
       </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7334,6 +8172,11 @@
       <c r="J171" t="b">
         <v>0</v>
       </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7376,6 +8219,11 @@
       <c r="J172" t="b">
         <v>0</v>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7418,6 +8266,11 @@
       <c r="J173" t="b">
         <v>0</v>
       </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7460,6 +8313,11 @@
       <c r="J174" t="b">
         <v>0</v>
       </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7498,6 +8356,11 @@
       <c r="J175" t="b">
         <v>0</v>
       </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7540,6 +8403,11 @@
       <c r="J176" t="b">
         <v>0</v>
       </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7582,6 +8450,11 @@
       <c r="J177" t="b">
         <v>1</v>
       </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7624,6 +8497,11 @@
       <c r="J178" t="b">
         <v>0</v>
       </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7666,6 +8544,11 @@
       <c r="J179" t="b">
         <v>0</v>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7704,6 +8587,11 @@
       <c r="J180" t="b">
         <v>0</v>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7746,6 +8634,11 @@
       <c r="J181" t="b">
         <v>0</v>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7788,6 +8681,11 @@
       <c r="J182" t="b">
         <v>0</v>
       </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7830,6 +8728,11 @@
       <c r="J183" t="b">
         <v>0</v>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7872,6 +8775,11 @@
       <c r="J184" t="b">
         <v>0</v>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7914,6 +8822,11 @@
       <c r="J185" t="b">
         <v>0</v>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7952,6 +8865,11 @@
       <c r="J186" t="b">
         <v>0</v>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7994,6 +8912,11 @@
       <c r="J187" t="b">
         <v>0</v>
       </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8036,6 +8959,11 @@
       <c r="J188" t="b">
         <v>1</v>
       </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8078,6 +9006,11 @@
       <c r="J189" t="b">
         <v>0</v>
       </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8120,6 +9053,11 @@
       <c r="J190" t="b">
         <v>0</v>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8162,6 +9100,11 @@
       <c r="J191" t="b">
         <v>0</v>
       </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8204,6 +9147,11 @@
       <c r="J192" t="b">
         <v>0</v>
       </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8246,6 +9194,11 @@
       <c r="J193" t="b">
         <v>0</v>
       </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8288,6 +9241,11 @@
       <c r="J194" t="b">
         <v>0</v>
       </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8330,6 +9288,11 @@
       <c r="J195" t="b">
         <v>0</v>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8372,6 +9335,11 @@
       <c r="J196" t="b">
         <v>0</v>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8414,6 +9382,11 @@
       <c r="J197" t="b">
         <v>0</v>
       </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8456,6 +9429,11 @@
       <c r="J198" t="b">
         <v>0</v>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8498,6 +9476,11 @@
       <c r="J199" t="b">
         <v>0</v>
       </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8540,6 +9523,11 @@
       <c r="J200" t="b">
         <v>0</v>
       </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8582,6 +9570,11 @@
       <c r="J201" t="b">
         <v>0</v>
       </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8624,6 +9617,11 @@
       <c r="J202" t="b">
         <v>0</v>
       </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8662,6 +9660,11 @@
       <c r="J203" t="b">
         <v>0</v>
       </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8704,6 +9707,11 @@
       <c r="J204" t="b">
         <v>0</v>
       </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8746,6 +9754,11 @@
       <c r="J205" t="b">
         <v>0</v>
       </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8788,6 +9801,11 @@
       <c r="J206" t="b">
         <v>0</v>
       </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8830,6 +9848,11 @@
       <c r="J207" t="b">
         <v>0</v>
       </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8872,6 +9895,11 @@
       <c r="J208" t="b">
         <v>0</v>
       </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8914,6 +9942,11 @@
       <c r="J209" t="b">
         <v>0</v>
       </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8956,6 +9989,11 @@
       <c r="J210" t="b">
         <v>0</v>
       </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8998,6 +10036,11 @@
       <c r="J211" t="b">
         <v>0</v>
       </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9036,6 +10079,11 @@
       <c r="J212" t="b">
         <v>0</v>
       </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9078,6 +10126,11 @@
       <c r="J213" t="b">
         <v>0</v>
       </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9120,6 +10173,11 @@
       <c r="J214" t="b">
         <v>0</v>
       </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9162,6 +10220,11 @@
       <c r="J215" t="b">
         <v>0</v>
       </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9204,6 +10267,11 @@
       <c r="J216" t="b">
         <v>0</v>
       </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9246,6 +10314,11 @@
       <c r="J217" t="b">
         <v>0</v>
       </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9288,6 +10361,11 @@
       <c r="J218" t="b">
         <v>0</v>
       </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9330,6 +10408,11 @@
       <c r="J219" t="b">
         <v>0</v>
       </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9372,6 +10455,11 @@
       <c r="J220" t="b">
         <v>0</v>
       </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9413,6 +10501,11 @@
       </c>
       <c r="J221" t="b">
         <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
       </c>
     </row>
     <row r="222">
@@ -9444,6 +10537,11 @@
       <c r="J222" t="b">
         <v>0</v>
       </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9478,6 +10576,11 @@
       <c r="J223" t="b">
         <v>0</v>
       </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9511,6 +10614,11 @@
       </c>
       <c r="J224" t="b">
         <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
     <row r="225">
@@ -9542,6 +10650,11 @@
       <c r="J225" t="b">
         <v>1</v>
       </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
